--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10991.7398361853</v>
+        <v>-22657.15397137928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25443474.71319746</v>
+        <v>25433354.02436323</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20350793.67834939</v>
+        <v>20377567.05548819</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1851543.150445943</v>
+        <v>1843373.293301471</v>
       </c>
     </row>
     <row r="11">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U23" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="V23" t="n">
-        <v>20.16697784598549</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="W23" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>20.16697784598549</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,76 +2475,76 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="T25" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>17.76307408674401</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,49 +2569,49 @@
         <v>20.16697784598549</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>17.76307408674401</v>
+      </c>
+      <c r="T26" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="H26" t="n">
-        <v>17.76307408674401</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9.124958947512123</v>
+      </c>
+      <c r="V27" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="U27" t="n">
-        <v>17.76307408674401</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2718,20 +2718,20 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="G28" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2791,67 +2791,67 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="T29" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="U29" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="V29" t="n">
         <v>17.76307408674401</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="G29" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>20.16697784598549</v>
       </c>
       <c r="U30" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>17.76307408674401</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="D32" t="n">
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>17.76307408674401</v>
+      </c>
+      <c r="W32" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="E32" t="n">
-        <v>17.76307408674401</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3122,43 +3122,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>20.16697784598549</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="S34" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="V35" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>17.76307408674401</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U36" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T37" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="V37" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.76307408674401</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T38" t="n">
         <v>20.16697784598549</v>
@@ -3562,7 +3562,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="V38" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="E39" t="n">
-        <v>17.76307408674401</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F39" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="G39" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3663,23 +3663,23 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>17.76307408674401</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T40" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="U40" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,50 +3748,50 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17.76307408674401</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>17.76307408674401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>9.124958947512123</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>17.76307408674401</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>37.52930446208642</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G44" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.05581137020571</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>33.05581137020569</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>17.76307408674401</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="U46" t="n">
-        <v>33.05581137020571</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -6007,28 +6007,28 @@
         <v>63.48151711880081</v>
       </c>
       <c r="P23" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R23" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="S23" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T23" t="n">
-        <v>80.66791138394194</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U23" t="n">
-        <v>60.2972266910273</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="V23" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="W23" t="n">
-        <v>19.55585730519804</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X23" t="n">
         <v>1.613358227678839</v>
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G24" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H24" t="n">
         <v>1.613358227678839</v>
@@ -6077,13 +6077,13 @@
         <v>20.37398739551631</v>
       </c>
       <c r="M24" t="n">
-        <v>29.09763722437549</v>
+        <v>40.33929546304194</v>
       </c>
       <c r="N24" t="n">
-        <v>49.06294529190112</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O24" t="n">
-        <v>69.02825335942674</v>
+        <v>80.26991159809319</v>
       </c>
       <c r="P24" t="n">
         <v>80.66791138394194</v>
@@ -6098,7 +6098,7 @@
         <v>60.2972266910273</v>
       </c>
       <c r="T24" t="n">
-        <v>39.92654199811267</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U24" t="n">
         <v>39.92654199811267</v>
@@ -6107,13 +6107,13 @@
         <v>39.92654199811267</v>
       </c>
       <c r="W24" t="n">
-        <v>39.92654199811267</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="X24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y24" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="25">
@@ -6147,52 +6147,52 @@
         <v>1.613358227678839</v>
       </c>
       <c r="J25" t="n">
-        <v>1.613358227678839</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="K25" t="n">
-        <v>1.613358227678839</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="L25" t="n">
-        <v>1.613358227678839</v>
+        <v>40.73729524889069</v>
       </c>
       <c r="M25" t="n">
-        <v>21.57866629520447</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="N25" t="n">
-        <v>41.5439743627301</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="O25" t="n">
-        <v>61.50928243025572</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="P25" t="n">
-        <v>80.66791138394194</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="Q25" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="R25" t="n">
-        <v>62.72541230642274</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="S25" t="n">
-        <v>62.72541230642274</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="T25" t="n">
-        <v>62.72541230642274</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="U25" t="n">
-        <v>42.3547276135081</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="V25" t="n">
-        <v>42.3547276135081</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="W25" t="n">
-        <v>42.3547276135081</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X25" t="n">
-        <v>42.3547276135081</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D26" t="n">
-        <v>60.2972266910273</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E26" t="n">
-        <v>60.2972266910273</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F26" t="n">
-        <v>39.92654199811267</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G26" t="n">
-        <v>19.55585730519804</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H26" t="n">
         <v>1.613358227678839</v>
@@ -6232,46 +6232,46 @@
         <v>1.613358227678839</v>
       </c>
       <c r="L26" t="n">
-        <v>8.029492740843512</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="M26" t="n">
-        <v>27.99480080836914</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="N26" t="n">
-        <v>47.96010887589478</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="O26" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="P26" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R26" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="S26" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="T26" t="n">
-        <v>80.66791138394194</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="U26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="V26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="W26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="X26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.98404292059347</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="C27" t="n">
-        <v>21.98404292059347</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="D27" t="n">
-        <v>21.98404292059347</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="E27" t="n">
-        <v>21.98404292059347</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="F27" t="n">
-        <v>21.98404292059347</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="G27" t="n">
-        <v>21.98404292059347</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="H27" t="n">
-        <v>1.613358227678839</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="I27" t="n">
         <v>1.613358227678839</v>
@@ -6317,7 +6317,7 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N27" t="n">
-        <v>49.06294529190112</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O27" t="n">
         <v>69.02825335942674</v>
@@ -6335,22 +6335,22 @@
         <v>60.2972266910273</v>
       </c>
       <c r="T27" t="n">
-        <v>39.92654199811267</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U27" t="n">
-        <v>21.98404292059347</v>
+        <v>51.08009644101506</v>
       </c>
       <c r="V27" t="n">
-        <v>21.98404292059347</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="W27" t="n">
-        <v>21.98404292059347</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="X27" t="n">
-        <v>21.98404292059347</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="Y27" t="n">
-        <v>21.98404292059347</v>
+        <v>30.70941174810043</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="C28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="D28" t="n">
         <v>42.3547276135081</v>
       </c>
       <c r="E28" t="n">
-        <v>42.3547276135081</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F28" t="n">
         <v>21.98404292059347</v>
       </c>
       <c r="G28" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="H28" t="n">
         <v>1.613358227678839</v>
@@ -6387,7 +6387,7 @@
         <v>1.613358227678839</v>
       </c>
       <c r="K28" t="n">
-        <v>1.613358227678839</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="L28" t="n">
         <v>21.57866629520447</v>
@@ -6399,37 +6399,37 @@
         <v>60.70260331641632</v>
       </c>
       <c r="O28" t="n">
-        <v>60.70260331641632</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="P28" t="n">
-        <v>60.70260331641632</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q28" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="R28" t="n">
-        <v>60.2972266910273</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S28" t="n">
-        <v>60.2972266910273</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="T28" t="n">
-        <v>60.2972266910273</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="U28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="V28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="W28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="X28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.72541230642274</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C29" t="n">
-        <v>62.72541230642274</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D29" t="n">
-        <v>62.72541230642274</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E29" t="n">
-        <v>62.72541230642274</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F29" t="n">
-        <v>42.3547276135081</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G29" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H29" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I29" t="n">
         <v>1.613358227678839</v>
@@ -6469,16 +6469,16 @@
         <v>1.613358227678839</v>
       </c>
       <c r="L29" t="n">
-        <v>20.77198718136506</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="M29" t="n">
-        <v>40.73729524889069</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="N29" t="n">
-        <v>60.70260331641632</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="O29" t="n">
-        <v>80.66791138394194</v>
+        <v>77.03069067316176</v>
       </c>
       <c r="P29" t="n">
         <v>80.66791138394194</v>
@@ -6490,25 +6490,25 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S29" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T29" t="n">
-        <v>80.66791138394194</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U29" t="n">
-        <v>80.66791138394194</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="V29" t="n">
-        <v>80.66791138394194</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="W29" t="n">
-        <v>80.66791138394194</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X29" t="n">
-        <v>80.66791138394194</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.66791138394194</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C30" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D30" t="n">
         <v>1.613358227678839</v>
@@ -6554,10 +6554,10 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N30" t="n">
-        <v>60.30460353056756</v>
+        <v>49.06294529190112</v>
       </c>
       <c r="O30" t="n">
-        <v>80.26991159809319</v>
+        <v>69.02825335942674</v>
       </c>
       <c r="P30" t="n">
         <v>80.66791138394194</v>
@@ -6575,19 +6575,19 @@
         <v>39.92654199811267</v>
       </c>
       <c r="U30" t="n">
-        <v>19.55585730519804</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="V30" t="n">
-        <v>19.55585730519804</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="W30" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="X30" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>62.72541230642274</v>
+      </c>
+      <c r="C31" t="n">
+        <v>62.72541230642274</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62.72541230642274</v>
+      </c>
+      <c r="E31" t="n">
+        <v>42.3547276135081</v>
+      </c>
+      <c r="F31" t="n">
         <v>21.98404292059347</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.613358227678839</v>
       </c>
       <c r="G31" t="n">
         <v>1.613358227678839</v>
@@ -6624,16 +6624,16 @@
         <v>21.57866629520447</v>
       </c>
       <c r="K31" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="L31" t="n">
-        <v>40.73729524889069</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="M31" t="n">
-        <v>60.70260331641632</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="N31" t="n">
-        <v>80.66791138394194</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="O31" t="n">
         <v>80.66791138394194</v>
@@ -6645,10 +6645,10 @@
         <v>80.66791138394194</v>
       </c>
       <c r="R31" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="S31" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="T31" t="n">
         <v>62.72541230642274</v>
@@ -6660,13 +6660,13 @@
         <v>62.72541230642274</v>
       </c>
       <c r="W31" t="n">
-        <v>42.3547276135081</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="X31" t="n">
-        <v>21.98404292059347</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.98404292059347</v>
+        <v>62.72541230642274</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.2972266910273</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C32" t="n">
-        <v>39.92654199811267</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D32" t="n">
-        <v>19.55585730519804</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E32" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F32" t="n">
         <v>1.613358227678839</v>
@@ -6706,22 +6706,22 @@
         <v>1.613358227678839</v>
       </c>
       <c r="L32" t="n">
-        <v>20.77198718136506</v>
+        <v>8.029492740843512</v>
       </c>
       <c r="M32" t="n">
-        <v>40.73729524889069</v>
+        <v>27.99480080836914</v>
       </c>
       <c r="N32" t="n">
-        <v>60.70260331641632</v>
+        <v>47.96010887589478</v>
       </c>
       <c r="O32" t="n">
-        <v>80.66791138394194</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="P32" t="n">
-        <v>80.66791138394194</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.66791138394194</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="R32" t="n">
         <v>80.66791138394194</v>
@@ -6730,22 +6730,22 @@
         <v>80.66791138394194</v>
       </c>
       <c r="T32" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U32" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="V32" t="n">
-        <v>80.66791138394194</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="W32" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="X32" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="C33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="D33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="E33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G33" t="n">
         <v>1.613358227678839</v>
@@ -6791,10 +6791,10 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N33" t="n">
-        <v>60.30460353056756</v>
+        <v>49.06294529190112</v>
       </c>
       <c r="O33" t="n">
-        <v>80.26991159809319</v>
+        <v>69.02825335942674</v>
       </c>
       <c r="P33" t="n">
         <v>80.66791138394194</v>
@@ -6806,25 +6806,25 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S33" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T33" t="n">
-        <v>60.2972266910273</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U33" t="n">
-        <v>39.92654199811267</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="V33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="W33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="X33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="G34" t="n">
         <v>1.613358227678839</v>
@@ -6858,22 +6858,22 @@
         <v>1.613358227678839</v>
       </c>
       <c r="J34" t="n">
-        <v>21.57866629520447</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K34" t="n">
-        <v>21.57866629520447</v>
+        <v>20.77198718136506</v>
       </c>
       <c r="L34" t="n">
-        <v>21.57866629520447</v>
+        <v>20.77198718136506</v>
       </c>
       <c r="M34" t="n">
-        <v>41.5439743627301</v>
+        <v>20.77198718136506</v>
       </c>
       <c r="N34" t="n">
-        <v>41.5439743627301</v>
+        <v>20.77198718136506</v>
       </c>
       <c r="O34" t="n">
-        <v>41.5439743627301</v>
+        <v>40.73729524889069</v>
       </c>
       <c r="P34" t="n">
         <v>60.70260331641632</v>
@@ -6882,28 +6882,28 @@
         <v>80.66791138394194</v>
       </c>
       <c r="R34" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="S34" t="n">
-        <v>60.2972266910273</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="T34" t="n">
-        <v>60.2972266910273</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="U34" t="n">
-        <v>60.2972266910273</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="V34" t="n">
-        <v>42.3547276135081</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="W34" t="n">
         <v>21.98404292059347</v>
       </c>
       <c r="X34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C35" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D35" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E35" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F35" t="n">
         <v>1.613358227678839</v>
@@ -6964,25 +6964,25 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S35" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T35" t="n">
-        <v>80.66791138394194</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U35" t="n">
-        <v>80.66791138394194</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="V35" t="n">
-        <v>62.72541230642274</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="W35" t="n">
-        <v>42.3547276135081</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="X35" t="n">
         <v>21.98404292059347</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.55585730519804</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="C36" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D36" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E36" t="n">
-        <v>1.613358227678839</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F36" t="n">
         <v>1.613358227678839</v>
@@ -7028,7 +7028,7 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N36" t="n">
-        <v>60.30460353056756</v>
+        <v>49.06294529190112</v>
       </c>
       <c r="O36" t="n">
         <v>69.02825335942674</v>
@@ -7043,13 +7043,13 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S36" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T36" t="n">
-        <v>80.66791138394194</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U36" t="n">
-        <v>60.2972266910273</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="V36" t="n">
         <v>39.92654199811267</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="C37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="D37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="E37" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="F37" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="G37" t="n">
         <v>1.613358227678839</v>
@@ -7101,46 +7101,46 @@
         <v>21.57866629520447</v>
       </c>
       <c r="L37" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="M37" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="N37" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="O37" t="n">
-        <v>40.73729524889069</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="P37" t="n">
-        <v>60.70260331641632</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="Q37" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="R37" t="n">
-        <v>62.72541230642274</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S37" t="n">
-        <v>62.72541230642274</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T37" t="n">
-        <v>42.3547276135081</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U37" t="n">
-        <v>21.98404292059347</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="V37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="W37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="X37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.613358227678839</v>
+        <v>39.92654199811267</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="C38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="D38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="E38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="F38" t="n">
         <v>1.613358227678839</v>
@@ -7192,34 +7192,34 @@
         <v>63.48151711880081</v>
       </c>
       <c r="P38" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.48151711880081</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R38" t="n">
         <v>80.66791138394194</v>
       </c>
       <c r="S38" t="n">
-        <v>62.72541230642274</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T38" t="n">
-        <v>42.3547276135081</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U38" t="n">
-        <v>21.98404292059347</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="V38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="W38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="X38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="C39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="D39" t="n">
-        <v>80.66791138394194</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="E39" t="n">
-        <v>62.72541230642274</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F39" t="n">
-        <v>42.3547276135081</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G39" t="n">
-        <v>21.98404292059347</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H39" t="n">
         <v>1.613358227678839</v>
@@ -7265,7 +7265,7 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N39" t="n">
-        <v>49.06294529190112</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O39" t="n">
         <v>69.02825335942674</v>
@@ -7280,25 +7280,25 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="T39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="U39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="V39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="W39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="X39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="Y39" t="n">
-        <v>80.66791138394194</v>
+        <v>62.72541230642274</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>39.92654199811267</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39.92654199811267</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39.92654199811267</v>
+      </c>
+      <c r="E40" t="n">
+        <v>39.92654199811267</v>
+      </c>
+      <c r="F40" t="n">
         <v>19.55585730519804</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.613358227678839</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.613358227678839</v>
-      </c>
       <c r="G40" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="H40" t="n">
         <v>1.613358227678839</v>
@@ -7335,22 +7335,22 @@
         <v>1.613358227678839</v>
       </c>
       <c r="K40" t="n">
-        <v>1.613358227678839</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="L40" t="n">
-        <v>1.613358227678839</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="M40" t="n">
-        <v>1.613358227678839</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="N40" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="O40" t="n">
-        <v>41.5439743627301</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="P40" t="n">
-        <v>61.50928243025572</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="Q40" t="n">
         <v>80.66791138394194</v>
@@ -7359,10 +7359,10 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S40" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T40" t="n">
-        <v>60.2972266910273</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U40" t="n">
         <v>39.92654199811267</v>
@@ -7374,10 +7374,10 @@
         <v>39.92654199811267</v>
       </c>
       <c r="X40" t="n">
-        <v>19.55585730519804</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.55585730519804</v>
+        <v>39.92654199811267</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.98404292059347</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="C41" t="n">
-        <v>21.98404292059347</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="D41" t="n">
-        <v>21.98404292059347</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="E41" t="n">
-        <v>21.98404292059347</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="F41" t="n">
-        <v>21.98404292059347</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="G41" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="H41" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="I41" t="n">
         <v>1.613358227678839</v>
@@ -7438,25 +7438,25 @@
         <v>80.66791138394194</v>
       </c>
       <c r="S41" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T41" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U41" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="V41" t="n">
-        <v>80.66791138394194</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="W41" t="n">
         <v>60.2972266910273</v>
       </c>
       <c r="X41" t="n">
-        <v>42.3547276135081</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="Y41" t="n">
-        <v>21.98404292059347</v>
+        <v>60.2972266910273</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.55585730519804</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="C42" t="n">
-        <v>1.613358227678839</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="D42" t="n">
-        <v>1.613358227678839</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="E42" t="n">
-        <v>1.613358227678839</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="F42" t="n">
-        <v>1.613358227678839</v>
+        <v>30.70941174810043</v>
       </c>
       <c r="G42" t="n">
-        <v>1.613358227678839</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="H42" t="n">
-        <v>1.613358227678839</v>
+        <v>10.3387270551858</v>
       </c>
       <c r="I42" t="n">
         <v>1.613358227678839</v>
@@ -7502,10 +7502,10 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N42" t="n">
-        <v>49.06294529190112</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O42" t="n">
-        <v>69.02825335942674</v>
+        <v>80.26991159809319</v>
       </c>
       <c r="P42" t="n">
         <v>80.66791138394194</v>
@@ -7520,22 +7520,22 @@
         <v>80.66791138394194</v>
       </c>
       <c r="T42" t="n">
+        <v>80.66791138394194</v>
+      </c>
+      <c r="U42" t="n">
         <v>60.2972266910273</v>
       </c>
-      <c r="U42" t="n">
-        <v>39.92654199811267</v>
-      </c>
       <c r="V42" t="n">
-        <v>39.92654199811267</v>
+        <v>51.08009644101506</v>
       </c>
       <c r="W42" t="n">
-        <v>19.55585730519804</v>
+        <v>51.08009644101506</v>
       </c>
       <c r="X42" t="n">
-        <v>19.55585730519804</v>
+        <v>51.08009644101506</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.55585730519804</v>
+        <v>30.70941174810043</v>
       </c>
     </row>
     <row r="43">
@@ -7569,25 +7569,25 @@
         <v>1.613358227678839</v>
       </c>
       <c r="J43" t="n">
-        <v>1.613358227678839</v>
+        <v>21.57866629520447</v>
       </c>
       <c r="K43" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="L43" t="n">
-        <v>21.57866629520447</v>
+        <v>41.5439743627301</v>
       </c>
       <c r="M43" t="n">
-        <v>41.5439743627301</v>
+        <v>61.50928243025572</v>
       </c>
       <c r="N43" t="n">
-        <v>60.70260331641632</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="O43" t="n">
-        <v>60.70260331641632</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="P43" t="n">
-        <v>60.70260331641632</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q43" t="n">
         <v>80.66791138394194</v>
@@ -7608,10 +7608,10 @@
         <v>19.55585730519804</v>
       </c>
       <c r="W43" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="X43" t="n">
-        <v>1.613358227678839</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="Y43" t="n">
         <v>1.613358227678839</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.8191210480506</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="C44" t="n">
-        <v>78.8191210480506</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="D44" t="n">
-        <v>40.91073270250876</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E44" t="n">
-        <v>40.91073270250876</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F44" t="n">
-        <v>40.91073270250876</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G44" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H44" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I44" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J44" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K44" t="n">
-        <v>8.579347327526889</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L44" t="n">
-        <v>30.44332621730854</v>
+        <v>8.029492740843512</v>
       </c>
       <c r="M44" t="n">
-        <v>67.59733763477409</v>
+        <v>27.99480080836914</v>
       </c>
       <c r="N44" t="n">
-        <v>104.7513490522396</v>
+        <v>47.96010887589478</v>
       </c>
       <c r="O44" t="n">
-        <v>136.7661938505105</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="P44" t="n">
-        <v>150.1172178483457</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R44" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S44" t="n">
-        <v>116.7275093935924</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T44" t="n">
-        <v>116.7275093935924</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U44" t="n">
-        <v>116.7275093935924</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="V44" t="n">
-        <v>116.7275093935924</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="W44" t="n">
-        <v>116.7275093935924</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="X44" t="n">
-        <v>78.8191210480506</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.8191210480506</v>
+        <v>39.92654199811267</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.2088295028038</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="C45" t="n">
-        <v>112.2088295028038</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="D45" t="n">
-        <v>74.30044115726199</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E45" t="n">
-        <v>40.91073270250876</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="F45" t="n">
-        <v>3.002344356966914</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="G45" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H45" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I45" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J45" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K45" t="n">
-        <v>11.45991954906473</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="L45" t="n">
-        <v>41.5928022922832</v>
+        <v>20.37398739551631</v>
       </c>
       <c r="M45" t="n">
-        <v>78.74681370974875</v>
+        <v>40.33929546304194</v>
       </c>
       <c r="N45" t="n">
-        <v>91.75600249516235</v>
+        <v>60.30460353056756</v>
       </c>
       <c r="O45" t="n">
-        <v>128.4760412668173</v>
+        <v>80.26991159809319</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R45" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S45" t="n">
-        <v>150.1172178483457</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T45" t="n">
-        <v>150.1172178483457</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="U45" t="n">
-        <v>150.1172178483457</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="V45" t="n">
-        <v>112.2088295028038</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="W45" t="n">
-        <v>112.2088295028038</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="X45" t="n">
-        <v>112.2088295028038</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="Y45" t="n">
-        <v>112.2088295028038</v>
+        <v>21.98404292059347</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="C46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="D46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="E46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="F46" t="n">
-        <v>3.002344356966914</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="G46" t="n">
-        <v>3.002344356966914</v>
+        <v>19.55585730519804</v>
       </c>
       <c r="H46" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I46" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J46" t="n">
-        <v>3.002344356966914</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="K46" t="n">
-        <v>3.002344356966914</v>
+        <v>20.77198718136506</v>
       </c>
       <c r="L46" t="n">
-        <v>3.002344356966914</v>
+        <v>40.73729524889069</v>
       </c>
       <c r="M46" t="n">
-        <v>38.65518359594903</v>
+        <v>60.70260331641632</v>
       </c>
       <c r="N46" t="n">
-        <v>75.80919501341458</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="O46" t="n">
-        <v>112.9632064308801</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="P46" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R46" t="n">
-        <v>150.1172178483457</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S46" t="n">
-        <v>150.1172178483457</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="T46" t="n">
-        <v>150.1172178483457</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="U46" t="n">
-        <v>116.7275093935924</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="V46" t="n">
-        <v>78.8191210480506</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="W46" t="n">
-        <v>40.91073270250876</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="X46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.002344356966914</v>
+        <v>39.92654199811267</v>
       </c>
     </row>
   </sheetData>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7330732454824584</v>
+        <v>18.09306745269572</v>
       </c>
       <c r="Q23" t="n">
         <v>20.2575401764107</v>
       </c>
       <c r="R23" t="n">
-        <v>64.0838048347249</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.94160780737001</v>
+        <v>51.1085856533555</v>
       </c>
       <c r="K25" t="n">
         <v>18.57647807777823</v>
       </c>
       <c r="L25" t="n">
-        <v>11.53730631291606</v>
+        <v>30.88945677118497</v>
       </c>
       <c r="M25" t="n">
         <v>30.9985157428986</v>
       </c>
       <c r="N25" t="n">
-        <v>27.52652356531795</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O25" t="n">
-        <v>35.27460950653458</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P25" t="n">
-        <v>40.07741836835653</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.08955582939744</v>
+        <v>57.25653367538293</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>6.944471810258847</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>13.6860338932939</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.67396031391938</v>
       </c>
       <c r="P26" t="n">
         <v>0.7330732454824584</v>
@@ -9898,7 +9898,7 @@
         <v>20.2575401764107</v>
       </c>
       <c r="R26" t="n">
-        <v>64.0838048347249</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>30.94160780737001</v>
       </c>
       <c r="K28" t="n">
-        <v>18.57647807777823</v>
+        <v>38.74345592376371</v>
       </c>
       <c r="L28" t="n">
-        <v>31.70428415890155</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M28" t="n">
         <v>30.9985157428986</v>
@@ -10047,13 +10047,13 @@
         <v>26.71169617760138</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1076316605491</v>
+        <v>35.27460950653458</v>
       </c>
       <c r="P28" t="n">
         <v>20.72526791008761</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.25653367538293</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>6.944471810258847</v>
       </c>
       <c r="L29" t="n">
-        <v>12.87120650557732</v>
+        <v>13.6860338932939</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4.488787701635957</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7330732454824584</v>
+        <v>4.407033559401837</v>
       </c>
       <c r="Q29" t="n">
         <v>20.2575401764107</v>
@@ -10272,19 +10272,19 @@
         <v>51.1085856533555</v>
       </c>
       <c r="K31" t="n">
-        <v>18.57647807777823</v>
+        <v>38.74345592376371</v>
       </c>
       <c r="L31" t="n">
-        <v>30.88945677118497</v>
+        <v>31.70428415890154</v>
       </c>
       <c r="M31" t="n">
-        <v>30.9985157428986</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N31" t="n">
-        <v>27.52652356531795</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O31" t="n">
-        <v>15.1076316605491</v>
+        <v>34.45978211881801</v>
       </c>
       <c r="P31" t="n">
         <v>20.72526791008761</v>
@@ -10354,7 +10354,7 @@
         <v>6.944471810258847</v>
       </c>
       <c r="L32" t="n">
-        <v>12.87120650557732</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>4.488787701635957</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0.7330732454824584</v>
@@ -10372,7 +10372,7 @@
         <v>20.2575401764107</v>
       </c>
       <c r="R32" t="n">
-        <v>46.72381062751163</v>
+        <v>64.0838048347249</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.1085856533555</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K34" t="n">
-        <v>18.57647807777823</v>
+        <v>37.92862853604714</v>
       </c>
       <c r="L34" t="n">
         <v>11.53730631291606</v>
       </c>
       <c r="M34" t="n">
-        <v>30.9985157428986</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N34" t="n">
         <v>7.359545719332466</v>
       </c>
       <c r="O34" t="n">
-        <v>15.1076316605491</v>
+        <v>35.27460950653458</v>
       </c>
       <c r="P34" t="n">
-        <v>40.07741836835652</v>
+        <v>40.8922457560731</v>
       </c>
       <c r="Q34" t="n">
         <v>57.25653367538293</v>
@@ -10749,7 +10749,7 @@
         <v>18.57647807777823</v>
       </c>
       <c r="L37" t="n">
-        <v>11.53730631291606</v>
+        <v>31.70428415890154</v>
       </c>
       <c r="M37" t="n">
         <v>10.83153789691311</v>
@@ -10758,13 +10758,13 @@
         <v>7.359545719332466</v>
       </c>
       <c r="O37" t="n">
-        <v>34.45978211881801</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P37" t="n">
         <v>40.89224575607309</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.25653367538293</v>
+        <v>56.44170628766635</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.7330732454824584</v>
+        <v>18.09306745269572</v>
       </c>
       <c r="Q38" t="n">
         <v>20.2575401764107</v>
       </c>
       <c r="R38" t="n">
-        <v>64.0838048347249</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>30.94160780737001</v>
       </c>
       <c r="K40" t="n">
-        <v>18.57647807777823</v>
+        <v>38.74345592376371</v>
       </c>
       <c r="L40" t="n">
-        <v>11.53730631291606</v>
+        <v>31.70428415890154</v>
       </c>
       <c r="M40" t="n">
         <v>10.83153789691311</v>
       </c>
       <c r="N40" t="n">
-        <v>27.52652356531795</v>
+        <v>7.359545719332466</v>
       </c>
       <c r="O40" t="n">
-        <v>35.27460950653458</v>
+        <v>34.45978211881801</v>
       </c>
       <c r="P40" t="n">
-        <v>40.8922457560731</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.44170628766635</v>
+        <v>57.25653367538293</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.94160780737001</v>
+        <v>51.1085856533555</v>
       </c>
       <c r="K43" t="n">
         <v>38.74345592376371</v>
@@ -11238,7 +11238,7 @@
         <v>20.72526791008761</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.25653367538293</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10.09069110280004</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.944471810258847</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.579696329610414</v>
+        <v>37.61753438362396</v>
       </c>
       <c r="R44" t="n">
-        <v>40.51258854612289</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>13.70815661144292</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.808809210202192</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R45" t="n">
-        <v>34.25063875717579</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.80579301341918</v>
+        <v>30.94160780737001</v>
       </c>
       <c r="K46" t="n">
-        <v>13.42337108707594</v>
+        <v>37.92862853604714</v>
       </c>
       <c r="L46" t="n">
-        <v>4.943103517458695</v>
+        <v>31.70428415890155</v>
       </c>
       <c r="M46" t="n">
-        <v>39.89184455282424</v>
+        <v>30.9985157428986</v>
       </c>
       <c r="N46" t="n">
-        <v>38.10150667793754</v>
+        <v>27.52652356531795</v>
       </c>
       <c r="O46" t="n">
-        <v>46.36772583379053</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P46" t="n">
-        <v>52.89017993052277</v>
+        <v>20.72526791008761</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.37552856090302</v>
+        <v>37.08955582939744</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.2042619908454</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T23" t="n">
-        <v>217.1559246089122</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U23" t="n">
         <v>234.2712174709211</v>
       </c>
       <c r="V23" t="n">
-        <v>326.1722012708987</v>
+        <v>328.5761050301401</v>
       </c>
       <c r="W23" t="n">
-        <v>359.7557200101976</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>378.873889765993</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24299,10 +24299,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>87.81142004601043</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H24" t="n">
-        <v>46.53386047917024</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I24" t="n">
         <v>8.638115139231887</v>
@@ -24338,19 +24338,19 @@
         <v>80.32158238241527</v>
       </c>
       <c r="T24" t="n">
-        <v>136.1879834931738</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3545581856602</v>
+        <v>175.1875803396747</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>190.933858735049</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>156.7996479557521</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.6557314841185</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.62475216678143</v>
+        <v>51.22084840753996</v>
       </c>
       <c r="S25" t="n">
-        <v>179.4767667166956</v>
+        <v>159.3097888707101</v>
       </c>
       <c r="T25" t="n">
-        <v>235.9148534330488</v>
+        <v>215.7478755870633</v>
       </c>
       <c r="U25" t="n">
-        <v>259.787378794628</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>258.5158937594704</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.3213637791374</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>380.2523127618846</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,10 +24457,10 @@
         <v>396.6531300798638</v>
       </c>
       <c r="G26" t="n">
-        <v>383.827879592881</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H26" t="n">
-        <v>283.4190178412</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I26" t="n">
         <v>60.57778515682809</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.2042619908454</v>
+        <v>101.4411879041014</v>
       </c>
       <c r="T26" t="n">
-        <v>217.1559246089122</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4381953169066</v>
+        <v>234.2712174709211</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24524,7 +24524,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>112.4881426925583</v>
       </c>
       <c r="D27" t="n">
         <v>115.7281862028015</v>
@@ -24539,10 +24539,10 @@
         <v>105.5744941327544</v>
       </c>
       <c r="H27" t="n">
-        <v>46.53386047917024</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I27" t="n">
-        <v>8.638115139231887</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,13 +24575,13 @@
         <v>80.32158238241527</v>
       </c>
       <c r="T27" t="n">
-        <v>136.1879834931738</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U27" t="n">
-        <v>177.5914840989161</v>
+        <v>186.229599238148</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>191.407433890911</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -24606,19 +24606,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>137.7327203843336</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>139.1347291343782</v>
       </c>
       <c r="F28" t="n">
-        <v>142.8178367845292</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>145.121071441127</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5344584306495</v>
+        <v>125.367480584664</v>
       </c>
       <c r="I28" t="n">
         <v>106.4663700204336</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.22084840753996</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S28" t="n">
         <v>179.4767667166956</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.3558937811006</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -24691,16 +24691,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>396.6531300798638</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>383.827879592881</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H29" t="n">
         <v>301.182091927944</v>
       </c>
       <c r="I29" t="n">
-        <v>40.41080731084261</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.2042619908454</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T29" t="n">
-        <v>217.1559246089122</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4381953169066</v>
+        <v>234.2712174709211</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>328.5761050301401</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24764,7 +24764,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>95.561208356816</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -24815,16 +24815,16 @@
         <v>136.1879834931738</v>
       </c>
       <c r="U30" t="n">
-        <v>175.1875803396747</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>193.3377624942905</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>156.7996479557521</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -24840,19 +24840,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>149.2154608679152</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>139.1347291343782</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>142.8178367845292</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2880492871125</v>
+        <v>145.121071441127</v>
       </c>
       <c r="H31" t="n">
         <v>145.5344584306495</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.38782625352545</v>
+        <v>53.62475216678143</v>
       </c>
       <c r="S31" t="n">
         <v>179.4767667166956</v>
       </c>
       <c r="T31" t="n">
-        <v>218.1517793463048</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U31" t="n">
         <v>279.9543566406135</v>
@@ -24900,10 +24900,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>256.1119900002288</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>215.793445672928</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>385.951990021859</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>385.8563669338771</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>380.2523127618846</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>392.4337392415283</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>396.6531300798638</v>
       </c>
       <c r="G32" t="n">
         <v>403.9948574388665</v>
@@ -24970,16 +24970,16 @@
         <v>119.2042619908454</v>
       </c>
       <c r="T32" t="n">
-        <v>217.1559246089122</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U32" t="n">
         <v>254.4381953169066</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>328.5761050301401</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>359.7557200101976</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25010,7 +25010,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>85.40751628676894</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H33" t="n">
         <v>66.70083832515573</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>100.4885602284008</v>
+        <v>80.32158238241527</v>
       </c>
       <c r="T33" t="n">
         <v>136.1879834931738</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2880492871125</v>
+        <v>145.121071441127</v>
       </c>
       <c r="H34" t="n">
         <v>145.5344584306495</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.38782625352545</v>
+        <v>53.62475216678143</v>
       </c>
       <c r="S34" t="n">
         <v>159.3097888707101</v>
       </c>
       <c r="T34" t="n">
-        <v>235.9148534330488</v>
+        <v>215.7478755870633</v>
       </c>
       <c r="U34" t="n">
         <v>279.9543566406135</v>
       </c>
       <c r="V34" t="n">
-        <v>253.3838135231292</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>256.1119900002288</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>215.793445672928</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25165,7 +25165,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>396.6531300798638</v>
       </c>
       <c r="G35" t="n">
         <v>403.9948574388665</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.2042619908454</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T35" t="n">
-        <v>217.1559246089122</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4381953169066</v>
+        <v>236.6751212301626</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5761050301401</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>359.7557200101976</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>376.4699860067515</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>376.7603284754053</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>118.7330244632453</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>114.8920464517997</v>
@@ -25244,7 +25244,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>87.70330317333497</v>
       </c>
       <c r="G36" t="n">
         <v>105.5744941327544</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>100.4885602284008</v>
+        <v>80.32158238241527</v>
       </c>
       <c r="T36" t="n">
-        <v>156.3549613391593</v>
+        <v>136.1879834931738</v>
       </c>
       <c r="U36" t="n">
-        <v>175.1875803396747</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V36" t="n">
-        <v>191.407433890911</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -25320,13 +25320,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>139.1347291343782</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.2880492871125</v>
+        <v>147.5249752003685</v>
       </c>
       <c r="H37" t="n">
         <v>145.5344584306495</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.62475216678143</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S37" t="n">
-        <v>179.4767667166956</v>
+        <v>159.3097888707101</v>
       </c>
       <c r="T37" t="n">
-        <v>215.7478755870633</v>
+        <v>235.9148534330488</v>
       </c>
       <c r="U37" t="n">
         <v>259.787378794628</v>
       </c>
       <c r="V37" t="n">
-        <v>250.9799097638878</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25402,7 +25402,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>399.0570338391053</v>
       </c>
       <c r="G38" t="n">
         <v>403.9948574388665</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>101.4411879041014</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T38" t="n">
         <v>196.9889467629267</v>
@@ -25450,7 +25450,7 @@
         <v>234.2712174709211</v>
       </c>
       <c r="V38" t="n">
-        <v>326.1722012708987</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -25475,19 +25475,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>95.561208356816</v>
       </c>
       <c r="E39" t="n">
-        <v>101.5248137608513</v>
+        <v>99.1209100016098</v>
       </c>
       <c r="F39" t="n">
         <v>87.70330317333497</v>
       </c>
       <c r="G39" t="n">
-        <v>85.40751628676894</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H39" t="n">
-        <v>46.53386047917024</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I39" t="n">
         <v>8.638115139231887</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>100.4885602284008</v>
+        <v>82.72548614165675</v>
       </c>
       <c r="T39" t="n">
         <v>156.3549613391593</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>151.6193646271566</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25560,13 +25560,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>142.8178367845292</v>
       </c>
       <c r="G40" t="n">
         <v>165.2880492871125</v>
       </c>
       <c r="H40" t="n">
-        <v>145.5344584306495</v>
+        <v>127.7713843439055</v>
       </c>
       <c r="I40" t="n">
         <v>106.4663700204336</v>
@@ -25599,13 +25599,13 @@
         <v>71.38782625352545</v>
       </c>
       <c r="S40" t="n">
-        <v>179.4767667166956</v>
+        <v>159.3097888707101</v>
       </c>
       <c r="T40" t="n">
         <v>215.7478755870633</v>
       </c>
       <c r="U40" t="n">
-        <v>259.787378794628</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,7 +25614,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>215.793445672928</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25636,19 +25636,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>390.0298354822868</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>396.6531300798638</v>
       </c>
       <c r="G41" t="n">
-        <v>383.827879592881</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H41" t="n">
         <v>301.182091927944</v>
       </c>
       <c r="I41" t="n">
-        <v>60.57778515682809</v>
+        <v>42.81471107008409</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.2042619908454</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T41" t="n">
         <v>217.1559246089122</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>359.7557200101976</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>378.873889765993</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.7603284754053</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>114.8920464517997</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -25721,13 +25721,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.5744941327544</v>
+        <v>85.40751628676894</v>
       </c>
       <c r="H42" t="n">
         <v>66.70083832515573</v>
       </c>
       <c r="I42" t="n">
-        <v>8.638115139231887</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>100.4885602284008</v>
       </c>
       <c r="T42" t="n">
-        <v>136.1879834931738</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U42" t="n">
         <v>175.1875803396747</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>202.4494527893844</v>
       </c>
       <c r="W42" t="n">
-        <v>190.933858735049</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>137.6409621938228</v>
       </c>
     </row>
     <row r="43">
@@ -25848,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>258.5158937594704</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>204.7252675383789</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>362.8899861457836</v>
+        <v>382.6562165211261</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>396.6531300798638</v>
       </c>
       <c r="G44" t="n">
-        <v>366.3666737523534</v>
+        <v>403.9948574388665</v>
       </c>
       <c r="H44" t="n">
-        <v>300.1694450707848</v>
+        <v>301.182091927944</v>
       </c>
       <c r="I44" t="n">
-        <v>56.76574385712078</v>
+        <v>60.57778515682809</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.89524029401811</v>
+        <v>99.03728414485995</v>
       </c>
       <c r="T44" t="n">
-        <v>216.7230808039846</v>
+        <v>196.9889467629267</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4302849789525</v>
+        <v>254.4381953169066</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25930,7 +25930,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>359.1076593906506</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25949,22 +25949,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>78.19888174071505</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>86.2320764773896</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>70.34097655723403</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.5215890835718</v>
+        <v>85.40751628676894</v>
       </c>
       <c r="H45" t="n">
-        <v>66.18988692910271</v>
+        <v>66.70083832515573</v>
       </c>
       <c r="I45" t="n">
-        <v>6.816603577462475</v>
+        <v>8.638115139231887</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>99.50587214380286</v>
+        <v>80.32158238241527</v>
       </c>
       <c r="T45" t="n">
-        <v>156.1417168646031</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3510775903192</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V45" t="n">
-        <v>174.0451072748101</v>
+        <v>191.407433890911</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>193.3377624942905</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>142.8178367845292</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2436954710736</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H46" t="n">
-        <v>145.1401126844127</v>
+        <v>127.7713843439055</v>
       </c>
       <c r="I46" t="n">
-        <v>105.1325298071908</v>
+        <v>106.4663700204336</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.39351739781233</v>
+        <v>71.38782625352545</v>
       </c>
       <c r="S46" t="n">
-        <v>178.7038006680902</v>
+        <v>159.3097888707101</v>
       </c>
       <c r="T46" t="n">
-        <v>235.7253416736098</v>
+        <v>215.7478755870633</v>
       </c>
       <c r="U46" t="n">
-        <v>246.8961259713511</v>
+        <v>279.9543566406135</v>
       </c>
       <c r="V46" t="n">
-        <v>233.6175831477868</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>238.7496633841279</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>198.431119056827</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>167616.4265754614</v>
+        <v>167616.4265754613</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>167616.4265754613</v>
+        <v>167616.4265754614</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181763.9757728235</v>
+        <v>167616.4265754614</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>32621.95651211285</v>
       </c>
       <c r="C2" t="n">
-        <v>32743.3483299517</v>
+        <v>32743.34832995171</v>
       </c>
       <c r="D2" t="n">
-        <v>32826.59059618534</v>
+        <v>32826.59059618535</v>
       </c>
       <c r="E2" t="n">
         <v>33049.07197485935</v>
@@ -26328,7 +26328,7 @@
         <v>33049.07197485935</v>
       </c>
       <c r="G2" t="n">
-        <v>33049.07197485935</v>
+        <v>33049.07197485936</v>
       </c>
       <c r="H2" t="n">
         <v>33049.07197485936</v>
@@ -26337,16 +26337,16 @@
         <v>37091.84544771958</v>
       </c>
       <c r="J2" t="n">
-        <v>37091.84544771956</v>
+        <v>37091.84544771958</v>
       </c>
       <c r="K2" t="n">
         <v>37091.84544771958</v>
       </c>
       <c r="L2" t="n">
-        <v>37091.84544771957</v>
+        <v>37091.84544771958</v>
       </c>
       <c r="M2" t="n">
-        <v>37091.84544771959</v>
+        <v>37091.84544771958</v>
       </c>
       <c r="N2" t="n">
         <v>37091.84544771958</v>
@@ -26355,7 +26355,7 @@
         <v>37091.84544771958</v>
       </c>
       <c r="P2" t="n">
-        <v>40572.38447576635</v>
+        <v>37091.84544771958</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91626.024235875</v>
+        <v>91626.02423587498</v>
       </c>
       <c r="C3" t="n">
         <v>9594.670458340697</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20474.64771245122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>8977.296762381626</v>
       </c>
       <c r="E4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="F4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="G4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502925</v>
       </c>
       <c r="H4" t="n">
-        <v>6391.763272502923</v>
+        <v>6391.763272502924</v>
       </c>
       <c r="I4" t="n">
         <v>5000.438207009245</v>
@@ -26450,16 +26450,16 @@
         <v>5000.438207009245</v>
       </c>
       <c r="M4" t="n">
-        <v>5000.438207009246</v>
+        <v>5000.438207009245</v>
       </c>
       <c r="N4" t="n">
-        <v>5000.438207009246</v>
+        <v>5000.438207009245</v>
       </c>
       <c r="O4" t="n">
         <v>5000.438207009245</v>
       </c>
       <c r="P4" t="n">
-        <v>3902.218203074859</v>
+        <v>5000.438207009245</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>4730.028692145275</v>
       </c>
       <c r="P5" t="n">
-        <v>6321.855464663672</v>
+        <v>4730.028692145275</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106331.2906482921</v>
+        <v>-107709.1764516004</v>
       </c>
       <c r="C6" t="n">
-        <v>-22809.3133282644</v>
+        <v>-24186.26534835857</v>
       </c>
       <c r="D6" t="n">
-        <v>-18426.23799471901</v>
+        <v>-19802.54968968829</v>
       </c>
       <c r="E6" t="n">
-        <v>8261.69575199519</v>
+        <v>6887.09545224646</v>
       </c>
       <c r="F6" t="n">
-        <v>23776.2450692059</v>
+        <v>22401.64476945717</v>
       </c>
       <c r="G6" t="n">
-        <v>23776.2450692059</v>
+        <v>22401.64476945718</v>
       </c>
       <c r="H6" t="n">
-        <v>23776.24506920591</v>
+        <v>22401.64476945718</v>
       </c>
       <c r="I6" t="n">
-        <v>492.9722899983171</v>
+        <v>-850.5297522668657</v>
       </c>
       <c r="J6" t="n">
-        <v>27361.37854856504</v>
+        <v>26017.87650629987</v>
       </c>
       <c r="K6" t="n">
-        <v>27361.37854856507</v>
+        <v>26017.87650629987</v>
       </c>
       <c r="L6" t="n">
-        <v>27361.37854856505</v>
+        <v>26017.87650629988</v>
       </c>
       <c r="M6" t="n">
-        <v>27361.37854856507</v>
+        <v>26017.87650629987</v>
       </c>
       <c r="N6" t="n">
-        <v>27361.37854856506</v>
+        <v>26017.87650629987</v>
       </c>
       <c r="O6" t="n">
-        <v>27361.37854856506</v>
+        <v>26017.87650629988</v>
       </c>
       <c r="P6" t="n">
-        <v>9873.663095576601</v>
+        <v>26017.87650629987</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>160.7282770233651</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3244840994871</v>
+        <v>160.7282770233651</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="P4" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>24.596207076122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.36232661610094</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -32797,7 +32797,7 @@
         <v>75.06465428341215</v>
       </c>
       <c r="M24" t="n">
-        <v>66.37605124231558</v>
+        <v>77.73126158440292</v>
       </c>
       <c r="N24" t="n">
         <v>73.36037123973549</v>
@@ -32806,7 +32806,7 @@
         <v>77.91845684598547</v>
       </c>
       <c r="P24" t="n">
-        <v>66.01686533059687</v>
+        <v>54.66165498850956</v>
       </c>
       <c r="Q24" t="n">
         <v>44.13052617441525</v>
@@ -33037,10 +33037,10 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N27" t="n">
-        <v>62.00516089764815</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O27" t="n">
-        <v>77.91845684598547</v>
+        <v>66.56324650389816</v>
       </c>
       <c r="P27" t="n">
         <v>66.01686533059687</v>
@@ -33274,13 +33274,13 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N30" t="n">
-        <v>73.36037123973549</v>
+        <v>62.00516089764815</v>
       </c>
       <c r="O30" t="n">
         <v>77.91845684598547</v>
       </c>
       <c r="P30" t="n">
-        <v>54.66165498850956</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q30" t="n">
         <v>44.13052617441525</v>
@@ -33511,13 +33511,13 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N33" t="n">
-        <v>73.36037123973549</v>
+        <v>62.00516089764815</v>
       </c>
       <c r="O33" t="n">
         <v>77.91845684598547</v>
       </c>
       <c r="P33" t="n">
-        <v>54.66165498850956</v>
+        <v>66.01686533059687</v>
       </c>
       <c r="Q33" t="n">
         <v>44.13052617441525</v>
@@ -33748,10 +33748,10 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N36" t="n">
-        <v>73.36037123973549</v>
+        <v>62.00516089764815</v>
       </c>
       <c r="O36" t="n">
-        <v>66.56324650389816</v>
+        <v>77.91845684598547</v>
       </c>
       <c r="P36" t="n">
         <v>66.01686533059687</v>
@@ -33985,10 +33985,10 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N39" t="n">
-        <v>62.00516089764815</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O39" t="n">
-        <v>77.91845684598547</v>
+        <v>66.56324650389816</v>
       </c>
       <c r="P39" t="n">
         <v>66.01686533059687</v>
@@ -34222,13 +34222,13 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N42" t="n">
-        <v>62.00516089764815</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O42" t="n">
         <v>77.91845684598547</v>
       </c>
       <c r="P42" t="n">
-        <v>66.01686533059687</v>
+        <v>54.66165498850956</v>
       </c>
       <c r="Q42" t="n">
         <v>44.13052617441525</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7450230516562287</v>
+        <v>0.6461438272296077</v>
       </c>
       <c r="H44" t="n">
-        <v>7.629967327774355</v>
+        <v>6.617320470615222</v>
       </c>
       <c r="I44" t="n">
-        <v>28.72250119897679</v>
+        <v>24.91045989926948</v>
       </c>
       <c r="J44" t="n">
-        <v>63.23290023050791</v>
+        <v>54.84064965632897</v>
       </c>
       <c r="K44" t="n">
-        <v>94.76972600711609</v>
+        <v>82.19191786295828</v>
       </c>
       <c r="L44" t="n">
-        <v>117.5702252242404</v>
+        <v>101.9663420155364</v>
       </c>
       <c r="M44" t="n">
-        <v>130.8195289191319</v>
+        <v>113.4572023030309</v>
       </c>
       <c r="N44" t="n">
-        <v>130.4415952187057</v>
+        <v>113.0792686026048</v>
       </c>
       <c r="O44" t="n">
-        <v>125.5280026947435</v>
+        <v>108.8679657701327</v>
       </c>
       <c r="P44" t="n">
-        <v>107.1352461069803</v>
+        <v>92.9162900354017</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.45410806954163</v>
+        <v>69.77626422274135</v>
       </c>
       <c r="R44" t="n">
-        <v>46.79955426860062</v>
+        <v>40.58833218721188</v>
       </c>
       <c r="S44" t="n">
-        <v>16.97721278961633</v>
+        <v>14.7240024629947</v>
       </c>
       <c r="T44" t="n">
-        <v>3.261338408625143</v>
+        <v>2.828494603697609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05960184413249829</v>
+        <v>0.05169150617836861</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3986224752328589</v>
+        <v>0.3457174260502569</v>
       </c>
       <c r="H45" t="n">
-        <v>3.849853905538402</v>
+        <v>3.338902509485377</v>
       </c>
       <c r="I45" t="n">
-        <v>13.72450188849975</v>
+        <v>11.90299032673034</v>
       </c>
       <c r="J45" t="n">
-        <v>37.66108218855709</v>
+        <v>32.66271523924818</v>
       </c>
       <c r="K45" t="n">
-        <v>64.36878802915864</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>86.55177910702932</v>
+        <v>75.06465428341215</v>
       </c>
       <c r="M45" t="n">
-        <v>95.09358820050385</v>
+        <v>77.73126158440292</v>
       </c>
       <c r="N45" t="n">
-        <v>66.33398812649101</v>
+        <v>73.36037123973549</v>
       </c>
       <c r="O45" t="n">
-        <v>94.84242725419692</v>
+        <v>77.91845684598547</v>
       </c>
       <c r="P45" t="n">
-        <v>76.11940932757989</v>
+        <v>54.66165498850956</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.88380929463653</v>
+        <v>44.13052617441525</v>
       </c>
       <c r="R45" t="n">
-        <v>24.74956034822962</v>
+        <v>21.46480650512035</v>
       </c>
       <c r="S45" t="n">
-        <v>7.404237643031388</v>
+        <v>6.421549558433496</v>
       </c>
       <c r="T45" t="n">
-        <v>1.60672831025876</v>
+        <v>1.39348383570257</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02622516284426705</v>
+        <v>0.02274456750330639</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3341916926384192</v>
+        <v>0.2898378765995107</v>
       </c>
       <c r="H46" t="n">
-        <v>2.971267958185221</v>
+        <v>2.576922211948379</v>
       </c>
       <c r="I46" t="n">
-        <v>10.05005562952628</v>
+        <v>8.71621541628347</v>
       </c>
       <c r="J46" t="n">
-        <v>23.62735266953624</v>
+        <v>20.49153787558541</v>
       </c>
       <c r="K46" t="n">
-        <v>38.82699847199088</v>
+        <v>33.6738914812886</v>
       </c>
       <c r="L46" t="n">
-        <v>49.68519037644281</v>
+        <v>43.09098758098545</v>
       </c>
       <c r="M46" t="n">
-        <v>52.38606687422057</v>
+        <v>45.43340460186693</v>
       </c>
       <c r="N46" t="n">
-        <v>51.14044329256831</v>
+        <v>44.35309978908698</v>
       </c>
       <c r="O46" t="n">
-        <v>47.23647670129222</v>
+        <v>40.96726641244722</v>
       </c>
       <c r="P46" t="n">
-        <v>40.41896617146843</v>
+        <v>35.05457372981717</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.98399709902255</v>
+        <v>24.26996983052812</v>
       </c>
       <c r="R46" t="n">
-        <v>15.02647374354201</v>
+        <v>13.03216488782891</v>
       </c>
       <c r="S46" t="n">
-        <v>5.824049770798632</v>
+        <v>5.051083722193289</v>
       </c>
       <c r="T46" t="n">
-        <v>1.427909959455064</v>
+        <v>1.238398200016091</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01822863778027744</v>
+        <v>0.01580933872360969</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>15.67819014434953</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17.35999420721327</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.35999420721327</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>18.9501304725631</v>
       </c>
       <c r="M24" t="n">
-        <v>8.811767503898158</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N24" t="n">
         <v>20.16697784598549</v>
@@ -36454,7 +36454,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="P24" t="n">
-        <v>11.75723032779312</v>
+        <v>0.4020199857058117</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>19.35215045826891</v>
       </c>
       <c r="M25" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="O25" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="P25" t="n">
-        <v>19.35215045826891</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>6.48094395269159</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M26" t="n">
         <v>20.16697784598549</v>
@@ -36609,7 +36609,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="O26" t="n">
-        <v>15.67819014434953</v>
+        <v>19.35215045826891</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.35999420721327</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N27" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="O27" t="n">
         <v>8.811767503898162</v>
-      </c>
-      <c r="O27" t="n">
-        <v>20.16697784598549</v>
       </c>
       <c r="P27" t="n">
         <v>11.75723032779312</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="L28" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>20.16697784598549</v>
@@ -36767,13 +36767,13 @@
         <v>19.35215045826891</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>19.35215045826891</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M29" t="n">
         <v>20.16697784598549</v>
@@ -36846,10 +36846,10 @@
         <v>20.16697784598549</v>
       </c>
       <c r="O29" t="n">
-        <v>20.16697784598549</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3.673960313919378</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N30" t="n">
-        <v>20.16697784598549</v>
+        <v>8.811767503898162</v>
       </c>
       <c r="O30" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="P30" t="n">
-        <v>0.4020199857058117</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>20.16697784598549</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="L31" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>19.35215045826891</v>
-      </c>
-      <c r="M31" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="N31" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>19.35215045826891</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M32" t="n">
         <v>20.16697784598549</v>
@@ -37083,7 +37083,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="O32" t="n">
-        <v>20.16697784598549</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.35999420721327</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N33" t="n">
-        <v>20.16697784598549</v>
+        <v>8.811767503898162</v>
       </c>
       <c r="O33" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4020199857058117</v>
+        <v>11.75723032779312</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>19.35215045826891</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>20.16697784598549</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>19.35215045826891</v>
       </c>
       <c r="Q34" t="n">
         <v>20.16697784598549</v>
@@ -37396,10 +37396,10 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N36" t="n">
+        <v>8.811767503898162</v>
+      </c>
+      <c r="O36" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="O36" t="n">
-        <v>8.811767503898162</v>
       </c>
       <c r="P36" t="n">
         <v>11.75723032779312</v>
@@ -37469,7 +37469,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37478,13 +37478,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>19.35215045826891</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.16697784598549</v>
+        <v>19.35215045826891</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>15.67819014434953</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>17.35999420721327</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.35999420721327</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N39" t="n">
+        <v>20.16697784598549</v>
+      </c>
+      <c r="O39" t="n">
         <v>8.811767503898162</v>
-      </c>
-      <c r="O39" t="n">
-        <v>20.16697784598549</v>
       </c>
       <c r="P39" t="n">
         <v>11.75723032779312</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>19.35215045826891</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="O40" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="P40" t="n">
-        <v>20.16697784598549</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>19.35215045826891</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N42" t="n">
-        <v>8.811767503898162</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O42" t="n">
         <v>20.16697784598549</v>
       </c>
       <c r="P42" t="n">
-        <v>11.75723032779312</v>
+        <v>0.4020199857058117</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="K43" t="n">
         <v>20.16697784598549</v>
@@ -37958,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>5.633336333898967</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>22.08482716139561</v>
+        <v>6.48094395269159</v>
       </c>
       <c r="M44" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N44" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O44" t="n">
-        <v>32.33822706896039</v>
+        <v>15.67819014434953</v>
       </c>
       <c r="P44" t="n">
-        <v>13.48588282609619</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>17.35999420721327</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.543005244543245</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>30.43725529618027</v>
+        <v>18.9501304725631</v>
       </c>
       <c r="M45" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N45" t="n">
-        <v>13.14059473274101</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O45" t="n">
-        <v>37.09094825419692</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="P45" t="n">
-        <v>21.85977432477614</v>
+        <v>0.4020199857058117</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>19.35215045826891</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M46" t="n">
-        <v>36.01296892826476</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="N46" t="n">
-        <v>37.52930446208642</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="O46" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>37.52930446208642</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
